--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail13 Features.xlsx
@@ -3321,7 +3321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3332,29 +3332,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3375,115 +3373,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3500,72 +3488,66 @@
         <v>5.37567513393497e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.197651050235652</v>
+        <v>3.03783180461663e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.223267132524704</v>
+        <v>3.841079373563713e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.03783180461663e-07</v>
+        <v>-0.06281604275497578</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.841079373563713e-06</v>
+        <v>0.4441734430529409</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06281604275497578</v>
+        <v>0.2008631871592046</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4441734430529409</v>
+        <v>1.914130067163357</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2008631871592046</v>
+        <v>1.913070959581716</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.942871713045605</v>
+        <v>5.402794744573621</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.913070959581716</v>
+        <v>2.953796831422485e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.402794744573621</v>
+        <v>709071071.0817176</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.953796831422485e-16</v>
+        <v>1.679270047348671e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>709071071.0817176</v>
+        <v>148.511524001823</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.679270047348671e-07</v>
+        <v>0.000149908495258924</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>148.511524001823</v>
+        <v>8.8065774790128</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000149908495258924</v>
+        <v>1.398674243160145</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.8065774790128</v>
+        <v>0.01162627431004956</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.398674243160145</v>
+        <v>3.287535806986489</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01162627431004956</v>
+        <v>0.9573657001332497</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.287535806986489</v>
+        <v>1.278895444128224</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9573657001332497</v>
+        <v>81</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.278895444128224</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.03884169734319</v>
       </c>
     </row>
@@ -3580,72 +3562,66 @@
         <v>5.087495397552438e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4237474249845125</v>
+        <v>1.936666844396768e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5999951973210176</v>
+        <v>3.838764336688428e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.936666844396768e-07</v>
+        <v>-0.02683714694913594</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.838764336688428e-06</v>
+        <v>0.3816024552195886</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02683714694913594</v>
+        <v>0.1461249531976346</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3816024552195886</v>
+        <v>1.922410241738877</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1461249531976346</v>
+        <v>2.139366940438177</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.95862754696796</v>
+        <v>5.869939883660447</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.139366940438177</v>
+        <v>1.139724693656619e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.869939883660447</v>
+        <v>1852921144.319861</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.139724693656619e-16</v>
+        <v>6.447555604562947e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1852921144.319861</v>
+        <v>391.3035900572281</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.447555604562947e-08</v>
+        <v>0.0001495478920059814</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>391.3035900572281</v>
+        <v>7.978101998848858</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001495478920059814</v>
+        <v>1.488970677558412</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.978101998848858</v>
+        <v>0.00951874000137427</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.488970677558412</v>
+        <v>3.345124990548097</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00951874000137427</v>
+        <v>0.9589240770962727</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.345124990548097</v>
+        <v>1.175550985425957</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9589240770962727</v>
+        <v>81</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.175550985425957</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.120937709255129</v>
       </c>
     </row>
@@ -3660,72 +3636,66 @@
         <v>5.054253072692092e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4129215004739398</v>
+        <v>1.882497766856993e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5755049502256306</v>
+        <v>3.838184216905324e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.882497766856993e-07</v>
+        <v>0.00239362562869366</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.838184216905324e-06</v>
+        <v>0.3317744692073564</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.00239362562869366</v>
+        <v>0.1099750588673861</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3317744692073564</v>
+        <v>1.918910494481029</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1099750588673861</v>
+        <v>2.502994492410371</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.960435885141371</v>
+        <v>5.029572918600356</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.502994492410371</v>
+        <v>6.871366157165389e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.029572918600356</v>
+        <v>3126650459.051122</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.871366157165389e-17</v>
+        <v>3.807400172603827e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3126650459.051122</v>
+        <v>671.7408452419619</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.807400172603827e-08</v>
+        <v>0.0001476375567755524</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>671.7408452419619</v>
+        <v>8.163902474882995</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001476375567755524</v>
+        <v>1.39198845895446</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.163902474882995</v>
+        <v>0.009839940347160302</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.39198845895446</v>
+        <v>3.352591241851719</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009839940347160302</v>
+        <v>0.9592203311151097</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.352591241851719</v>
+        <v>1.115851646591468</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9592203311151097</v>
+        <v>72</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.115851646591468</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.170587296932082</v>
       </c>
     </row>
@@ -3740,72 +3710,66 @@
         <v>5.046344440817084e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4514501303156124</v>
+        <v>1.882497766856993e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.53912605119503</v>
+        <v>3.838877646259413e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.882497766856993e-07</v>
+        <v>0.02365466111060019</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.838877646259413e-06</v>
+        <v>0.3060646375411625</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02365466111060019</v>
+        <v>0.09419098475940166</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3060646375411625</v>
+        <v>1.878500486741746</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09419098475940166</v>
+        <v>1.947333489921464</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.901521816822248</v>
+        <v>8.47684668695296</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.947333489921464</v>
+        <v>1.809614867965323e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.47684668695296</v>
+        <v>1193044895.801547</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.809614867965323e-16</v>
+        <v>9.885065160760289e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1193044895.801547</v>
+        <v>257.5726403310732</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.885065160760289e-08</v>
+        <v>0.0001416661480362577</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>257.5726403310732</v>
+        <v>9.31827384085269</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001416661480362577</v>
+        <v>1.203716830158107</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.31827384085269</v>
+        <v>0.01230090384506227</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.203716830158107</v>
+        <v>3.275167322245271</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01230090384506227</v>
+        <v>0.9578376277632057</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.275167322245271</v>
+        <v>1.287099805610003</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578376277632057</v>
+        <v>61</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.287099805610003</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.260146733937135</v>
       </c>
     </row>
@@ -4182,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.305262541701721</v>
+        <v>1.308500100281996</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.113660450261189</v>
@@ -4271,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.346278225320554</v>
+        <v>1.349493155149762</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.924198372399455</v>
@@ -4360,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.362629019569192</v>
+        <v>1.363689838872089</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.8963093728607</v>
@@ -4449,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.386409606202673</v>
+        <v>1.382318233503905</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.025094232630049</v>
@@ -4538,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.421908537868961</v>
+        <v>1.407608419043767</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.017769087536982</v>
@@ -4627,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.401390312960346</v>
+        <v>1.385879569637824</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.034704103101941</v>
@@ -4716,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.436490325334985</v>
+        <v>1.419685852335879</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.148638286236494</v>
@@ -4805,7 +4769,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.445988504767427</v>
+        <v>1.429711848882904</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.201927231402834</v>
@@ -4894,7 +4858,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.434433839764081</v>
+        <v>1.412719173926477</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.194089296916458</v>
@@ -4983,7 +4947,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.426146398169796</v>
+        <v>1.410545919064722</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.295104275055997</v>
@@ -5072,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.401201488503512</v>
+        <v>1.390641618720974</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.302015608850117</v>
@@ -5161,7 +5125,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.414515382944892</v>
+        <v>1.40682835370668</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.209078958108666</v>
@@ -5250,7 +5214,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.419752033654711</v>
+        <v>1.414182621654703</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.26907503684109</v>
@@ -5339,7 +5303,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.445342470474669</v>
+        <v>1.440975318819618</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.251711706531352</v>
@@ -5428,7 +5392,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.422367888297647</v>
+        <v>1.421506349915756</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.254555814136198</v>
@@ -5517,7 +5481,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.418765862376109</v>
+        <v>1.414494617450217</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.239468634421125</v>
@@ -5606,7 +5570,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.416240481319941</v>
+        <v>1.409588647352913</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.311545652722698</v>
@@ -5695,7 +5659,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.425133192626423</v>
+        <v>1.415893445035152</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.24880633796539</v>
@@ -5784,7 +5748,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.398063782406467</v>
+        <v>1.385412708631404</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.107707990845644</v>
@@ -5873,7 +5837,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.393073151620177</v>
+        <v>1.38571772362457</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.250000003146619</v>
@@ -5962,7 +5926,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.424545560514481</v>
+        <v>1.422466378737413</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.282475091602174</v>
@@ -6051,7 +6015,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.405548035283683</v>
+        <v>1.403024274677458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.204146657855133</v>
@@ -6140,7 +6104,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.401621151474673</v>
+        <v>1.403163075474868</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.202692074741553</v>
@@ -6229,7 +6193,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.413512625186686</v>
+        <v>1.418615173547163</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.210516011322756</v>
@@ -6318,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.419024769119815</v>
+        <v>1.423291173051396</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.981683521826314</v>
@@ -6407,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.404079204657586</v>
+        <v>1.409815113135947</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.143319083897574</v>
@@ -6496,7 +6460,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.398642228230225</v>
+        <v>1.405783229865353</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.149301338033622</v>
@@ -6585,7 +6549,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402513393653656</v>
+        <v>1.403766871121728</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.129133347186855</v>
@@ -6674,7 +6638,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.416464610375857</v>
+        <v>1.41332560493106</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.033544834095161</v>
@@ -6763,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.428540852150013</v>
+        <v>1.428640921359545</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.179812174173256</v>
@@ -6852,7 +6816,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.435801863186469</v>
+        <v>1.437242375583469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.088934382425316</v>
@@ -6941,7 +6905,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.402412111319386</v>
+        <v>1.409373310636474</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.251011043591971</v>
@@ -7030,7 +6994,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.393312999678144</v>
+        <v>1.405151749512714</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.111752183651106</v>
@@ -7119,7 +7083,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.450714828588917</v>
+        <v>1.466597708748047</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.052805006685113</v>
@@ -7208,7 +7172,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.468036146593391</v>
+        <v>1.483626496910068</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.034087293468327</v>
@@ -7297,7 +7261,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.419588656895594</v>
+        <v>1.431508789572751</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.035425125023645</v>
@@ -7386,7 +7350,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.452398147012833</v>
+        <v>1.463926208365906</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.014999139881303</v>
@@ -7475,7 +7439,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.455245292169263</v>
+        <v>1.460702593247841</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.007225699064652</v>
@@ -7564,7 +7528,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450167767660307</v>
+        <v>1.458484266353213</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.008614880994457</v>
@@ -7653,7 +7617,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.442161157052197</v>
+        <v>1.446893362500417</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.024401214485506</v>
@@ -7742,7 +7706,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.489733211442617</v>
+        <v>1.494633338606613</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.920198165381859</v>
@@ -7831,7 +7795,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43935152602864</v>
+        <v>1.446589083693158</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.033292903257277</v>
@@ -7920,7 +7884,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.420460369817381</v>
+        <v>1.421380088547757</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.993847232982072</v>
@@ -8009,7 +7973,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.423433607806676</v>
+        <v>1.423661293879678</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.04940119788043</v>
@@ -8098,7 +8062,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.425064625401515</v>
+        <v>1.417564060456371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.032741543995684</v>
@@ -8187,7 +8151,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.37819886264757</v>
+        <v>1.379775434809935</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.108765156873154</v>
@@ -8276,7 +8240,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.412119975949053</v>
+        <v>1.409310531326825</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.06224366063094</v>
@@ -8365,7 +8329,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.40905006585253</v>
+        <v>1.405533343543855</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.053035361150873</v>
@@ -8454,7 +8418,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.403606285227095</v>
+        <v>1.398241714654008</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.086971089753256</v>
@@ -8740,7 +8704,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647852378420614</v>
+        <v>1.642301689642624</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.561158429729603</v>
@@ -8829,7 +8793,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688615788627143</v>
+        <v>1.685386805363506</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.781478044545656</v>
@@ -8918,7 +8882,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.717170238471909</v>
+        <v>1.712796039942069</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.06092101696144</v>
@@ -9007,7 +8971,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687205915025512</v>
+        <v>1.690975516457611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.593096160318101</v>
@@ -9096,7 +9060,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707478957298179</v>
+        <v>1.710459439220819</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.494185383941186</v>
@@ -9185,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.72009331605157</v>
+        <v>1.721345773996846</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.57292277762328</v>
@@ -9274,7 +9238,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.736285059645647</v>
+        <v>1.73685370955581</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.623718072028226</v>
@@ -9363,7 +9327,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.742987957658324</v>
+        <v>1.747084741709581</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.693033582883012</v>
@@ -9452,7 +9416,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.755844541829544</v>
+        <v>1.757335847182834</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.719535332640958</v>
@@ -9541,7 +9505,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.753954431091239</v>
+        <v>1.765281408219676</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.6953411793419</v>
@@ -9630,7 +9594,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.75831566899679</v>
+        <v>1.768631551405152</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.795454096742398</v>
@@ -9719,7 +9683,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767191163444711</v>
+        <v>1.776075720751785</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.57409922487069</v>
@@ -9808,7 +9772,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.759880500924788</v>
+        <v>1.770746202637357</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.687321225747436</v>
@@ -9897,7 +9861,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754284448723267</v>
+        <v>1.765400809053511</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.827044915594249</v>
@@ -9986,7 +9950,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741963583401555</v>
+        <v>1.755486263318405</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.772797404914055</v>
@@ -10075,7 +10039,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740679938875443</v>
+        <v>1.755414309822872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.723679308531641</v>
@@ -10164,7 +10128,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.750042142768114</v>
+        <v>1.766126129658389</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.805984360912956</v>
@@ -10253,7 +10217,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.73530251309233</v>
+        <v>1.753440485870059</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.591940787369268</v>
@@ -10342,7 +10306,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.754520879679877</v>
+        <v>1.770927149418057</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.053617468808639</v>
@@ -10431,7 +10395,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.747195222301811</v>
+        <v>1.760588674263583</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.325206126427636</v>
@@ -10520,7 +10484,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.737362111248862</v>
+        <v>1.760835454767588</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.300420134052557</v>
@@ -10609,7 +10573,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.730471350633513</v>
+        <v>1.750850809267441</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.265303790633945</v>
@@ -10698,7 +10662,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731551488818771</v>
+        <v>1.74919787559007</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.309180783168725</v>
@@ -10787,7 +10751,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.727357203063569</v>
+        <v>1.744802070812103</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.299735181551168</v>
@@ -10876,7 +10840,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.719277176386419</v>
+        <v>1.73617796815664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.279485150411106</v>
@@ -10965,7 +10929,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.71769261817145</v>
+        <v>1.738769326307319</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.276476451235251</v>
@@ -11054,7 +11018,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.713546951625753</v>
+        <v>1.740418861862706</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.296574047002753</v>
@@ -11143,7 +11107,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.7237066663405</v>
+        <v>1.745645372360148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.232900345707568</v>
@@ -11232,7 +11196,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.734101190580104</v>
+        <v>1.757864331299693</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.876077000274006</v>
@@ -11321,7 +11285,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.739324390422302</v>
+        <v>1.766869810503028</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.018092874134625</v>
@@ -11410,7 +11374,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.7483079925155</v>
+        <v>1.773949631757964</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.168158882096326</v>
@@ -11499,7 +11463,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.741116138119575</v>
+        <v>1.763685772826559</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.08363708397868</v>
@@ -11588,7 +11552,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.77066426257073</v>
+        <v>1.788066186084416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.167167371130124</v>
@@ -11677,7 +11641,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.769724788334075</v>
+        <v>1.786948659522693</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.065708797872218</v>
@@ -11766,7 +11730,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.784879736723123</v>
+        <v>1.802474712584206</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.264796283373975</v>
@@ -11855,7 +11819,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.774344363436737</v>
+        <v>1.789531793748054</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.141946497281841</v>
@@ -11944,7 +11908,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.773552039644137</v>
+        <v>1.79619651768282</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.951101458287323</v>
@@ -12033,7 +11997,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.766384151838002</v>
+        <v>1.786581951747198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.10019412202695</v>
@@ -12122,7 +12086,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.772888101720968</v>
+        <v>1.792398972771479</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.230628391329306</v>
@@ -12211,7 +12175,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.740483028271825</v>
+        <v>1.762481608352464</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.638958200054119</v>
@@ -12300,7 +12264,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.72975940655937</v>
+        <v>1.751901794358229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.587875275977153</v>
@@ -12389,7 +12353,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730876587211172</v>
+        <v>1.751837360093359</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.729079936196692</v>
@@ -12478,7 +12442,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.731930713387103</v>
+        <v>1.7534740737698</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.651529345154442</v>
@@ -12567,7 +12531,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.73418931194454</v>
+        <v>1.751182368235867</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.585254402288224</v>
@@ -12656,7 +12620,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732340459965474</v>
+        <v>1.74992911001827</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.723930653826123</v>
@@ -12745,7 +12709,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724227500844111</v>
+        <v>1.740576068684046</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.606780378694026</v>
@@ -12834,7 +12798,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732114610005372</v>
+        <v>1.749459414662639</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.717888348039252</v>
@@ -12923,7 +12887,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.735330407302927</v>
+        <v>1.750491981874333</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.654930853948771</v>
@@ -13012,7 +12976,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.74872556020681</v>
+        <v>1.760443207575334</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.606864478667043</v>
@@ -13298,7 +13262,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.613445616270795</v>
+        <v>1.592452438503674</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.934506175264007</v>
@@ -13387,7 +13351,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.649966545954013</v>
+        <v>1.620941293350449</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.220412229024934</v>
@@ -13476,7 +13440,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658001096527357</v>
+        <v>1.635119649412303</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.231015361024198</v>
@@ -13565,7 +13529,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619168176098006</v>
+        <v>1.600411503379922</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.240375840255968</v>
@@ -13654,7 +13618,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.635420091702764</v>
+        <v>1.616297250980103</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.241888123827436</v>
@@ -13743,7 +13707,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.640058693612</v>
+        <v>1.622908540002307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.285171615720232</v>
@@ -13832,7 +13796,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.656979705638825</v>
+        <v>1.63610477652154</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.378400850558604</v>
@@ -13921,7 +13885,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.669391219316943</v>
+        <v>1.645114597394597</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.346338540100184</v>
@@ -14010,7 +13974,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.67868304073667</v>
+        <v>1.65324569762588</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.37469690832136</v>
@@ -14099,7 +14063,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.684037432245772</v>
+        <v>1.662639146768138</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.386138465933021</v>
@@ -14188,7 +14152,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689145902169223</v>
+        <v>1.671198607719598</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.369509450678341</v>
@@ -14277,7 +14241,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.697788369368939</v>
+        <v>1.681906841323047</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.35852797629793</v>
@@ -14366,7 +14330,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.706418545479345</v>
+        <v>1.693232249497662</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.41615865361432</v>
@@ -14455,7 +14419,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.706522545085394</v>
+        <v>1.690715923668897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.451515284695103</v>
@@ -14544,7 +14508,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701123104717573</v>
+        <v>1.69077028975328</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.404230783011205</v>
@@ -14633,7 +14597,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.694768787932183</v>
+        <v>1.683151749894177</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.471616973078089</v>
@@ -14722,7 +14686,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.694055918135789</v>
+        <v>1.681954418992305</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.457623454362971</v>
@@ -14811,7 +14775,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.697917689379843</v>
+        <v>1.686865880024578</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.392183605625296</v>
@@ -14900,7 +14864,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.732529077974775</v>
+        <v>1.720257324403636</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.436346165896414</v>
@@ -14989,7 +14953,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.711452983294327</v>
+        <v>1.695686675024995</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.817257847769246</v>
@@ -15078,7 +15042,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.698326689038379</v>
+        <v>1.689570116628863</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.754147797580114</v>
@@ -15167,7 +15131,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.68679862598757</v>
+        <v>1.680157638666648</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.724976731421786</v>
@@ -15256,7 +15220,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68179920150441</v>
+        <v>1.677334226091276</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.678430207769298</v>
@@ -15345,7 +15309,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.681712761523273</v>
+        <v>1.673630066193454</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.798039321280456</v>
@@ -15434,7 +15398,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653896754972461</v>
+        <v>1.65022378448999</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.523947302363553</v>
@@ -15523,7 +15487,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.62924064350061</v>
+        <v>1.628278352991403</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.597549397593807</v>
@@ -15612,7 +15576,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624348452370829</v>
+        <v>1.623686542026544</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.691274917104787</v>
@@ -15701,7 +15665,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.623307461012296</v>
+        <v>1.614327127644793</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.673674834421985</v>
@@ -15790,7 +15754,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630945118826618</v>
+        <v>1.623495566115222</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.65058458612766</v>
@@ -15879,7 +15843,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.637006357153447</v>
+        <v>1.630633940743848</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.732259227843934</v>
@@ -15968,7 +15932,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.64880703262515</v>
+        <v>1.640792630177675</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.507718594415612</v>
@@ -16057,7 +16021,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.636513070559906</v>
+        <v>1.629421188846222</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.51866746055387</v>
@@ -16146,7 +16110,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.622705750581453</v>
+        <v>1.614382768555198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.637039641400059</v>
@@ -16235,7 +16199,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.635005901593215</v>
+        <v>1.620904570192937</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.53579995857746</v>
@@ -16324,7 +16288,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.663208771899118</v>
+        <v>1.64570658768657</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.799344808773788</v>
@@ -16413,7 +16377,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.650813326788359</v>
+        <v>1.632220254728963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.787118755907192</v>
@@ -16502,7 +16466,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659995800097956</v>
+        <v>1.641145240518568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.787084076330221</v>
@@ -16591,7 +16555,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.663783034377871</v>
+        <v>1.643386535018189</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.786557245378283</v>
@@ -16680,7 +16644,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661298394941515</v>
+        <v>1.644762433182688</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.895423936537427</v>
@@ -16769,7 +16733,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.637088732915899</v>
+        <v>1.619357904287821</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.200115091317485</v>
@@ -16858,7 +16822,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639604342322715</v>
+        <v>1.624717423628509</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.195893892187132</v>
@@ -16947,7 +16911,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627446500954154</v>
+        <v>1.615798131698633</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.202269068201205</v>
@@ -17036,7 +17000,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.624973931884063</v>
+        <v>1.61311854725165</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.177979545142786</v>
@@ -17125,7 +17089,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626305290976058</v>
+        <v>1.612484234240165</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.140256497757602</v>
@@ -17214,7 +17178,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61938522492629</v>
+        <v>1.604161988731722</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.238263139394709</v>
@@ -17303,7 +17267,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605294280859216</v>
+        <v>1.588815674114008</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.150386929357567</v>
@@ -17392,7 +17356,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619294487506784</v>
+        <v>1.601027316349848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.184606050790791</v>
@@ -17481,7 +17445,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622297452521853</v>
+        <v>1.600315846300676</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.259547272764648</v>
@@ -17570,7 +17534,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62746981389735</v>
+        <v>1.604334063500597</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.161844175652058</v>
@@ -17856,7 +17820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.692032501940346</v>
+        <v>1.654619408471904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.037307984204688</v>
@@ -17945,7 +17909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.702519805476</v>
+        <v>1.672516877005501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.627914090531878</v>
@@ -18034,7 +17998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.724831846261057</v>
+        <v>1.700455577776199</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.567624245133487</v>
@@ -18123,7 +18087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687110764062789</v>
+        <v>1.676823097820879</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.334818017376983</v>
@@ -18212,7 +18176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710055148311143</v>
+        <v>1.698947443848958</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.418450736974828</v>
@@ -18301,7 +18265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.726417390540611</v>
+        <v>1.714249933719571</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.376180811322783</v>
@@ -18390,7 +18354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.735021878309873</v>
+        <v>1.721166821687218</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.432041058890383</v>
@@ -18479,7 +18443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.731891911630282</v>
+        <v>1.716884653750961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.417433056558562</v>
@@ -18568,7 +18532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.749361670224062</v>
+        <v>1.735473740885217</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.486471233008579</v>
@@ -18657,7 +18621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.741205411942348</v>
+        <v>1.728176133637253</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.511077052068095</v>
@@ -18746,7 +18710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.746994751646702</v>
+        <v>1.739424140945194</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.499695299701606</v>
@@ -18835,7 +18799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.749525745426832</v>
+        <v>1.741156478149246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.496057263973408</v>
@@ -18924,7 +18888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.754490056441018</v>
+        <v>1.749076458668009</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.453878614319353</v>
@@ -19013,7 +18977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.745337043726725</v>
+        <v>1.74047148087243</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.622235807396821</v>
@@ -19102,7 +19066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.731030866338114</v>
+        <v>1.736847196445002</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.51522131002772</v>
@@ -19191,7 +19155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.724671463702547</v>
+        <v>1.727664639019156</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.577646682903557</v>
@@ -19280,7 +19244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.728401510303013</v>
+        <v>1.732778871554837</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.525991596230049</v>
@@ -19369,7 +19333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.727917510662369</v>
+        <v>1.733915785303152</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.589258997021904</v>
@@ -19458,7 +19422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.774654826618631</v>
+        <v>1.773038416146205</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.350408483482663</v>
@@ -19547,7 +19511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.750895234722555</v>
+        <v>1.745206003548676</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.855593713186415</v>
@@ -19636,7 +19600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.723788833092882</v>
+        <v>1.725639821569527</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.73912559749927</v>
@@ -19725,7 +19689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.727546515527241</v>
+        <v>1.728130270030966</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.818626855950196</v>
@@ -19814,7 +19778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.728962129983048</v>
+        <v>1.732667636633892</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.684820317457666</v>
@@ -19903,7 +19867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.722340317689432</v>
+        <v>1.72621467645097</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.941573829097022</v>
@@ -19992,7 +19956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693917706140703</v>
+        <v>1.702876160000324</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.732205897569443</v>
@@ -20081,7 +20045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666368315268659</v>
+        <v>1.679831730446738</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.821044838692898</v>
@@ -20170,7 +20134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.664290243685058</v>
+        <v>1.675192233720002</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.791530482898917</v>
@@ -20259,7 +20223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.664794442347149</v>
+        <v>1.672858643458369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.764745843307431</v>
@@ -20348,7 +20312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679279159955847</v>
+        <v>1.682628733708388</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.534601752142519</v>
@@ -20437,7 +20401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.675317737866573</v>
+        <v>1.677370866513179</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.786806192437111</v>
@@ -20526,7 +20490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.682759118105416</v>
+        <v>1.683583422118015</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.619391782571941</v>
@@ -20615,7 +20579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670330202258044</v>
+        <v>1.670793075323707</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.643972584338893</v>
@@ -20704,7 +20668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.667341993260751</v>
+        <v>1.665302450449237</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.744364166778542</v>
@@ -20793,7 +20757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.659280720796984</v>
+        <v>1.652063244186595</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.636700389300504</v>
@@ -20882,7 +20846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.687491252833498</v>
+        <v>1.677260854559407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.787453167054426</v>
@@ -20971,7 +20935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686294032541417</v>
+        <v>1.675536529581597</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.846843267346181</v>
@@ -21060,7 +21024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.686719891215936</v>
+        <v>1.677196165774795</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.813519505595645</v>
@@ -21149,7 +21113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.687915843892464</v>
+        <v>1.675423494778446</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.75117026912164</v>
@@ -21238,7 +21202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.68658000702664</v>
+        <v>1.675922681957206</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.873197208907233</v>
@@ -21327,7 +21291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.66758740475568</v>
+        <v>1.655842796311089</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.22576613812108</v>
@@ -21416,7 +21380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672798673852453</v>
+        <v>1.666984308132433</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.210391668668533</v>
@@ -21505,7 +21469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669402918040682</v>
+        <v>1.665959546833356</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.244215155742582</v>
@@ -21594,7 +21558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661456549963433</v>
+        <v>1.656016516498982</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.190205562833149</v>
@@ -21683,7 +21647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.665681441633276</v>
+        <v>1.661284863797669</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.199174295613963</v>
@@ -21772,7 +21736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667615544017899</v>
+        <v>1.666123021179038</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.240614239506614</v>
@@ -21861,7 +21825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658220752674193</v>
+        <v>1.661287640855308</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.259978679625628</v>
@@ -21950,7 +21914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.666820086026357</v>
+        <v>1.665239050203917</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.229802550237082</v>
@@ -22039,7 +22003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.662829994228525</v>
+        <v>1.659625449961472</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.286883289720262</v>
@@ -22128,7 +22092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.668038219260739</v>
+        <v>1.665171900300174</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.235682412033423</v>
@@ -22414,7 +22378,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.583355577923965</v>
+        <v>1.587529913438646</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.517823658190727</v>
@@ -22503,7 +22467,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.621134217579915</v>
+        <v>1.627292003647053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.626520545707441</v>
@@ -22592,7 +22556,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.661877972857506</v>
+        <v>1.667776305807341</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.378126776683349</v>
@@ -22681,7 +22645,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.66872979059867</v>
+        <v>1.67204018313874</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.034338296649044</v>
@@ -22770,7 +22734,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.666647755759583</v>
+        <v>1.6739151290417</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.121108606231496</v>
@@ -22859,7 +22823,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.677679490846838</v>
+        <v>1.68756629921821</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.1543263302563</v>
@@ -22948,7 +22912,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678077533255242</v>
+        <v>1.68789681102511</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.21986738957174</v>
@@ -23037,7 +23001,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.688690718585676</v>
+        <v>1.696735084993864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.196178593949189</v>
@@ -23126,7 +23090,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.685874341848297</v>
+        <v>1.694986019981445</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.244387850371592</v>
@@ -23215,7 +23179,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.684722866106606</v>
+        <v>1.696645006989235</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.248314524535774</v>
@@ -23304,7 +23268,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.69519272595964</v>
+        <v>1.702663018762503</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.285779985340972</v>
@@ -23393,7 +23357,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706168782067319</v>
+        <v>1.716407860651127</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.284493504896024</v>
@@ -23482,7 +23446,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.698569712925574</v>
+        <v>1.708713943538945</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.134424874127139</v>
@@ -23571,7 +23535,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.694491641938732</v>
+        <v>1.706632338513218</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.046755210167772</v>
@@ -23660,7 +23624,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688105929204236</v>
+        <v>1.706888148600181</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.280175713080504</v>
@@ -23749,7 +23713,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.680468465653138</v>
+        <v>1.698959353941736</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.331937939733595</v>
@@ -23838,7 +23802,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676952248536551</v>
+        <v>1.68751550304625</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.309273682334673</v>
@@ -23927,7 +23891,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.664149873530349</v>
+        <v>1.677217546940462</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.183861194096294</v>
@@ -24016,7 +23980,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.668415673969455</v>
+        <v>1.676785277472731</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.736176584295164</v>
@@ -24105,7 +24069,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667774517967295</v>
+        <v>1.671910228309382</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.43773096012732</v>
@@ -24194,7 +24158,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664531441962961</v>
+        <v>1.67031517203728</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.279025271464511</v>
@@ -24283,7 +24247,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655434854885574</v>
+        <v>1.662582657689348</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.34652953012397</v>
@@ -24372,7 +24336,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.661167537031902</v>
+        <v>1.67222668856622</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.109484218762785</v>
@@ -24461,7 +24425,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675089434436697</v>
+        <v>1.682644149027699</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.143772498871024</v>
@@ -24550,7 +24514,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.66906462655256</v>
+        <v>1.678816640480571</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.981781162072929</v>
@@ -24639,7 +24603,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667928881033087</v>
+        <v>1.679458671204216</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.00125257105141</v>
@@ -24728,7 +24692,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.669300294026454</v>
+        <v>1.683013963872184</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.307389412644796</v>
@@ -24817,7 +24781,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.672577411633233</v>
+        <v>1.682637914117608</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.933005032522459</v>
@@ -24906,7 +24870,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.673633653282555</v>
+        <v>1.680880400450028</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.210646474197335</v>
@@ -24995,7 +24959,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.678562451909874</v>
+        <v>1.68641591259559</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.944758410973662</v>
@@ -25084,7 +25048,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690460101242749</v>
+        <v>1.697104388322364</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.078728472932278</v>
@@ -25173,7 +25137,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694464644277975</v>
+        <v>1.70270495174703</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.890171087692357</v>
@@ -25262,7 +25226,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.71034886939621</v>
+        <v>1.715486026668128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.873280949715537</v>
@@ -25351,7 +25315,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720695030238523</v>
+        <v>1.730358080549384</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.78687760108756</v>
@@ -25440,7 +25404,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738603752280851</v>
+        <v>1.749485120525604</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.172482649715857</v>
@@ -25529,7 +25493,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.723924767829368</v>
+        <v>1.734193790967968</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.080677742459678</v>
@@ -25618,7 +25582,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.735414934961954</v>
+        <v>1.745432452920072</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.381968437915539</v>
@@ -25707,7 +25671,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.727359454768877</v>
+        <v>1.737711432800899</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.237896050870686</v>
@@ -25796,7 +25760,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728235467464328</v>
+        <v>1.739234817900941</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.32174647696574</v>
@@ -25885,7 +25849,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.726443843076476</v>
+        <v>1.739431645866686</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.070615342772837</v>
@@ -25974,7 +25938,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722687791545653</v>
+        <v>1.736897224271794</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.958046424365112</v>
@@ -26063,7 +26027,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.715292140981228</v>
+        <v>1.72718165264807</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.934504524762463</v>
@@ -26152,7 +26116,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.712386973907789</v>
+        <v>1.727394178153871</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.90208468275243</v>
@@ -26241,7 +26205,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.723342033578043</v>
+        <v>1.740400963089457</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.93357672428146</v>
@@ -26330,7 +26294,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71278824056558</v>
+        <v>1.729932423923517</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.990122196032978</v>
@@ -26419,7 +26383,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.710628756209891</v>
+        <v>1.731317939964494</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.94430840892976</v>
@@ -26508,7 +26472,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.718732206044826</v>
+        <v>1.742934362165626</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.921618411689014</v>
@@ -26597,7 +26561,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691977159237343</v>
+        <v>1.722427330129168</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.855396357039812</v>
@@ -26686,7 +26650,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.691775856634257</v>
+        <v>1.717499814726981</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.87227631568557</v>
@@ -26972,7 +26936,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.329896788604594</v>
+        <v>1.344779458775315</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.109158867376151</v>
@@ -27061,7 +27025,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371838197619996</v>
+        <v>1.391230065307146</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.008604838068556</v>
@@ -27150,7 +27114,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.383099879266311</v>
+        <v>1.403162532934342</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.903473819868957</v>
@@ -27239,7 +27203,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.295002538777622</v>
+        <v>1.307547875160766</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.560238423043159</v>
@@ -27328,7 +27292,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.302736735477402</v>
+        <v>1.318232641011229</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.565817308057999</v>
@@ -27417,7 +27381,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.297210339570755</v>
+        <v>1.313160558153198</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.587270772582427</v>
@@ -27506,7 +27470,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.324150350081594</v>
+        <v>1.340642177380995</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.567668720585847</v>
@@ -27595,7 +27559,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.331561718039405</v>
+        <v>1.348302424012223</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.568531250184885</v>
@@ -27684,7 +27648,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.341676416492227</v>
+        <v>1.359043492148017</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.580694629985638</v>
@@ -27773,7 +27737,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.33766100991178</v>
+        <v>1.353672490820568</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.578981861996076</v>
@@ -27862,7 +27826,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.315956936674865</v>
+        <v>1.332975144169227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.590378123842188</v>
@@ -27951,7 +27915,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.318255822838391</v>
+        <v>1.335827751444948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.587242378446275</v>
@@ -28040,7 +28004,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.317342236144219</v>
+        <v>1.335703837868276</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.588902454037652</v>
@@ -28129,7 +28093,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.338903855019868</v>
+        <v>1.358408416223552</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.583342993003067</v>
@@ -28218,7 +28182,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.323093908231154</v>
+        <v>1.3442001129853</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.588185907784051</v>
@@ -28307,7 +28271,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.320393632997423</v>
+        <v>1.34058420918156</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.594671574459089</v>
@@ -28396,7 +28360,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.319757053433801</v>
+        <v>1.338508222699626</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.596050076472872</v>
@@ -28485,7 +28449,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.331209377489148</v>
+        <v>1.351810617611884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.579816408934825</v>
@@ -28574,7 +28538,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.43319960045269</v>
+        <v>1.454964035062734</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.112127974837463</v>
@@ -28663,7 +28627,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.420589569347776</v>
+        <v>1.407923120659521</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.724246056617169</v>
@@ -28752,7 +28716,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.399685291605317</v>
+        <v>1.405367611153167</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.721712459338479</v>
@@ -28841,7 +28805,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.375956470807396</v>
+        <v>1.38513897819037</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.731742047059296</v>
@@ -28930,7 +28894,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.372602100956812</v>
+        <v>1.384114355790875</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.729544127925176</v>
@@ -29019,7 +28983,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.367859567675589</v>
+        <v>1.37797118963387</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.72434401246348</v>
@@ -29108,7 +29072,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.33174147572797</v>
+        <v>1.333518681705349</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.739170977162035</v>
@@ -29197,7 +29161,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.292370396206802</v>
+        <v>1.296377835801727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.796514923869126</v>
@@ -29286,7 +29250,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.280326632380331</v>
+        <v>1.287127710099919</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.792496201942604</v>
@@ -29375,7 +29339,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.281232715844137</v>
+        <v>1.287198130306249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.794611148824423</v>
@@ -29464,7 +29428,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.287651772234538</v>
+        <v>1.290016012680642</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.766346811000127</v>
@@ -29553,7 +29517,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.294583281477381</v>
+        <v>1.300580276608953</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.788746742875816</v>
@@ -29642,7 +29606,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.293493720724505</v>
+        <v>1.301049193113468</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.786069093535794</v>
@@ -29731,7 +29695,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.276476546622667</v>
+        <v>1.280710026480802</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.78115969718817</v>
@@ -29820,7 +29784,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.266546321028011</v>
+        <v>1.267427435554141</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.746226012830401</v>
@@ -29909,7 +29873,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.282106451294835</v>
+        <v>1.283275297413726</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.741539632459634</v>
@@ -29998,7 +29962,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.311590558048979</v>
+        <v>1.325728308393158</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.757024534624794</v>
@@ -30087,7 +30051,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.293117492967894</v>
+        <v>1.306857276133047</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.682911212116545</v>
@@ -30176,7 +30140,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.307447118539391</v>
+        <v>1.32241548358103</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.675277892310611</v>
@@ -30265,7 +30229,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.308745810605079</v>
+        <v>1.323154248744777</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.691231918515816</v>
@@ -30354,7 +30318,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.307890186765635</v>
+        <v>1.319921547191994</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.698078073541572</v>
@@ -30443,7 +30407,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.285083769509847</v>
+        <v>1.285520958317582</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.510870181054548</v>
@@ -30532,7 +30496,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.283848422401087</v>
+        <v>1.298457159482051</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.462065438784916</v>
@@ -30621,7 +30585,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.274908865009855</v>
+        <v>1.288690669589086</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.497537683882431</v>
@@ -30710,7 +30674,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.272390769417635</v>
+        <v>1.285097104881736</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.48840898427344</v>
@@ -30799,7 +30763,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.271621469992386</v>
+        <v>1.28455697811097</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.494061855614853</v>
@@ -30888,7 +30852,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.273707910302657</v>
+        <v>1.279149278136253</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.493877030273596</v>
@@ -30977,7 +30941,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.249710588204169</v>
+        <v>1.25599465235497</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.504842617312449</v>
@@ -31066,7 +31030,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.264961274103358</v>
+        <v>1.274708238306781</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.500165825939042</v>
@@ -31155,7 +31119,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.270039814936184</v>
+        <v>1.281356500079164</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.500572856466428</v>
@@ -31244,7 +31208,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.274515992360301</v>
+        <v>1.286675048702089</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.507359020938052</v>
